--- a/xforms/xlsforms/visit_registration.xlsx
+++ b/xforms/xlsforms/visit_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
   <si>
     <t>type</t>
   </si>
@@ -304,6 +304,18 @@
   </si>
   <si>
     <t>Round number</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>processedByMirth</t>
+  </si>
+  <si>
+    <t>processed</t>
+  </si>
+  <si>
+    <t>1=2</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1477,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1900,14 +1912,21 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="3"/>
+      <c r="A20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>

--- a/xforms/xlsforms/visit_registration.xlsx
+++ b/xforms/xlsforms/visit_registration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
   <si>
     <t>type</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>processed</t>
-  </si>
-  <si>
-    <t>1=2</t>
   </si>
 </sst>
 </file>
@@ -1474,10 +1471,10 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1550,7 +1547,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1848,7 +1845,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>90</v>
       </c>
@@ -1868,7 +1865,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
@@ -1888,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -1911,7 +1908,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>96</v>
       </c>
@@ -1924,11 +1921,11 @@
       <c r="D20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
@@ -1937,7 +1934,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1946,7 +1943,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1955,7 +1952,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1964,7 +1961,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1974,7 +1971,7 @@
       <c r="G25" s="2"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1983,7 +1980,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1992,7 +1989,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2001,7 +1998,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2010,7 +2007,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2019,7 +2016,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2028,7 +2025,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>

--- a/xforms/xlsforms/visit_registration.xlsx
+++ b/xforms/xlsforms/visit_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
   <si>
     <t>type</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>processed</t>
+  </si>
+  <si>
+    <t>Scan the barcode of the Location ID for this visit</t>
   </si>
 </sst>
 </file>
@@ -1471,10 +1474,10 @@
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1706,7 +1709,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="I9" s="4"/>
       <c r="M9" s="4"/>

--- a/xforms/xlsforms/visit_registration.xlsx
+++ b/xforms/xlsforms/visit_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
   <si>
     <t>type</t>
   </si>
@@ -316,6 +316,21 @@
   </si>
   <si>
     <t>Scan the barcode of the Location ID for this visit</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>openhds</t>
+  </si>
+  <si>
+    <t>OpenHDS preloaded info</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>end group</t>
   </si>
 </sst>
 </file>
@@ -374,12 +389,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -744,7 +765,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -783,6 +804,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1471,13 +1501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1609,67 +1639,65 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
       <c r="M6" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" s="4" t="b">
         <v>1</v>
@@ -1680,16 +1708,16 @@
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="I8" s="4" t="b">
         <v>1</v>
@@ -1700,266 +1728,279 @@
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="K10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="4" t="b">
+        <v>95</v>
+      </c>
+      <c r="I9" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="M9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="I10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="I11" s="4"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="4" t="b">
+        <v>83</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="K12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M13" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="I14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M14" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I15" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="M15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M16" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I17" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="I18" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="L18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="I19" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="M20" s="4" t="b">
+      <c r="A20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="I20" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="2"/>
+    <row r="21" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
+      <c r="I21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="A22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1972,13 +2013,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="11"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1987,16 +2027,17 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2005,7 +2046,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2036,7 +2077,6 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
@@ -2046,7 +2086,6 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -2066,6 +2105,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
@@ -2077,20 +2117,33 @@
       <c r="G36" s="2"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I41" s="3"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="3"/>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I58" s="3"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="3"/>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I59" s="3"/>
@@ -2101,11 +2154,11 @@
     <row r="61" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I61" s="3"/>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="3"/>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I63" s="3"/>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I80" s="3"/>
@@ -2117,11 +2170,9 @@
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -2129,10 +2180,18 @@
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
       <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+      <c r="I87" s="3"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I88" s="3"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I90" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xforms/xlsforms/visit_registration.xlsx
+++ b/xforms/xlsforms/visit_registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
   <si>
     <t>type</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>end group</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>concat(${individualId},'_VISIT_',${visitId},'_',${fieldWorkerId})</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2719,10 +2725,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2732,7 +2738,7 @@
     <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2742,8 +2748,11 @@
       <c r="C1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -2752,6 +2761,9 @@
       </c>
       <c r="C2" t="s">
         <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/visit_registration.xlsx
+++ b/xforms/xlsforms/visit_registration.xlsx
@@ -336,7 +336,7 @@
     <t>instance_name</t>
   </si>
   <si>
-    <t>concat(${individualId},'_VISIT_',${visitId},'_',${fieldWorkerId})</t>
+    <t>concat(${locationId},'_VISIT_',${visitId},'_',${fieldWorkerId})</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1513,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2728,7 +2728,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/xforms/xlsforms/visit_registration.xlsx
+++ b/xforms/xlsforms/visit_registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="108">
   <si>
     <t>type</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>concat(${locationId},'_VISIT_',${visitId},'_',${fieldWorkerId})</t>
+  </si>
+  <si>
+    <t>Nobody IN</t>
   </si>
 </sst>
 </file>
@@ -1510,10 +1513,10 @@
   <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2209,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2367,20 +2370,28 @@
         <v>87</v>
       </c>
       <c r="B11" s="13">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="13">
         <v>99</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
@@ -2727,7 +2738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/xforms/xlsforms/visit_registration.xlsx
+++ b/xforms/xlsforms/visit_registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
   <si>
     <t>type</t>
   </si>
@@ -339,7 +339,16 @@
     <t>concat(${locationId},'_VISIT_',${visitId},'_',${fieldWorkerId})</t>
   </si>
   <si>
-    <t>Nobody IN</t>
+    <t xml:space="preserve">Nobody to interview </t>
+  </si>
+  <si>
+    <t>realVisit</t>
+  </si>
+  <si>
+    <t>Real Visit</t>
+  </si>
+  <si>
+    <t>if(../correctInterviewee='1',0,if(../reason='88',1,0)))</t>
   </si>
 </sst>
 </file>
@@ -1510,13 +1519,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1936,38 +1945,41 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1975,50 +1987,61 @@
       <c r="I21" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L21" s="5" t="s">
+    </row>
+    <row r="22" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="I22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M22" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="M23" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2040,16 +2063,16 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="11"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
@@ -2064,7 +2087,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -2104,7 +2127,6 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
@@ -2134,6 +2156,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
@@ -2143,19 +2166,25 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I42" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I43" s="3"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="3"/>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="3"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I44" s="3"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="3"/>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I60" s="3"/>
@@ -2169,8 +2198,8 @@
     <row r="63" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I63" s="3"/>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I80" s="3"/>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I64" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I81" s="3"/>
@@ -2185,7 +2214,6 @@
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -2197,10 +2225,14 @@
       <c r="I87" s="3"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I90" s="3"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I89" s="3"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I91" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2212,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/xforms/xlsforms/visit_registration.xlsx
+++ b/xforms/xlsforms/visit_registration.xlsx
@@ -348,7 +348,7 @@
     <t>Real Visit</t>
   </si>
   <si>
-    <t>if(../correctInterviewee='1',0,if(../reason='88',1,0)))</t>
+    <t>if(../correctInterviewee='1',0,if(../reason='88',1,0))</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1525,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/xforms/xlsforms/visit_registration.xlsx
+++ b/xforms/xlsforms/visit_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
   <si>
     <t>type</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>if(../correctInterviewee='1',0,if(../reason='88',1,0))</t>
+  </si>
+  <si>
+    <t>../correctInterviewee = '0' and not(selected(${reason}, '88'))</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1528,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1906,17 +1909,17 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
+      <c r="A18" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I18" s="4" t="b">
         <v>1</v>
@@ -1925,24 +1928,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>90</v>
+    <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="4" t="b">
         <v>1</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
@@ -2245,7 +2248,7 @@
   <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/xforms/xlsforms/visit_registration.xlsx
+++ b/xforms/xlsforms/visit_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
   <si>
     <t>type</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>../correctInterviewee = '0' and not(selected(${reason}, '88'))</t>
+  </si>
+  <si>
+    <t>../intervieweeId !='UNK'</t>
   </si>
 </sst>
 </file>
@@ -1525,10 +1528,10 @@
   <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1906,6 +1909,9 @@
       </c>
       <c r="I17" s="4" t="b">
         <v>1</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
